--- a/biology/Zoologie/Glaphyromyrmex/Glaphyromyrmex.xlsx
+++ b/biology/Zoologie/Glaphyromyrmex/Glaphyromyrmex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaphyromyrmex est un genre fossile de fourmis de la tribu des Formicini (sous-famille des Formicinae).
 </t>
@@ -511,17 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Glaphyromyrmex est créé en 1915 par l'entomologiste américain William Morton Wheeler (1865-1937) ainsi que la seule espèce Glaphyromyrmex oligocenicus[1],[2].
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de collections de fossiles référencées est de deux[2] :
-Rupélien de l'Oligocène inférieur, une collection d'Allemagne, de Kleinkembs, en région du Bade-Wurtemberg, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[3] ;
-Priabonien de l'Éocène supérieur, une seule collections de Russie, de Kaliningrad[2].
-Sous-famille et tribu
-Ce genre est classé dans la famille des Formicidae en 1992 par Frank Morton Carpenter (d)[4],[2].
-Puis ce genre est reclassé dans la tribu des Lasiini en 2012 par le myrmécologue anglais Barry Bolton (1938-)[5], suivi en 2016 par Philip S. Ward (d) et al.[6],[2].
-Barry Bolton en 2003[7] puis Brendon E. Boudinot (d) et al. en 2022[8],[2] reclassent à nouveau ce genre dans la tribu des Formicini comme l'avait défini William Morton Wheeler en 1915.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Glaphyromyrmex est créé en 1915 par l'entomologiste américain William Morton Wheeler (1865-1937) ainsi que la seule espèce Glaphyromyrmex oligocenicus,.
 </t>
         </is>
       </c>
@@ -547,13 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Espèces fossiles</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Selon Paleobiology Database en 2023, une seule espèce fossile est référencée du même auteur que le genre[2].
-†Glaphyromyrmex oligocenicus Wheeler, 1915</t>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre de collections de fossiles référencées est de deux :
+Rupélien de l'Oligocène inférieur, une collection d'Allemagne, de Kleinkembs, en région du Bade-Wurtemberg, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) ;
+Priabonien de l'Éocène supérieur, une seule collections de Russie, de Kaliningrad.</t>
         </is>
       </c>
     </row>
@@ -578,13 +591,91 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-famille et tribu</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est classé dans la famille des Formicidae en 1992 par Frank Morton Carpenter (d),.
+Puis ce genre est reclassé dans la tribu des Lasiini en 2012 par le myrmécologue anglais Barry Bolton (1938-), suivi en 2016 par Philip S. Ward (d) et al.,.
+Barry Bolton en 2003 puis Brendon E. Boudinot (d) et al. en 2022, reclassent à nouveau ce genre dans la tribu des Formicini comme l'avait défini William Morton Wheeler en 1915.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glaphyromyrmex</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaphyromyrmex</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, une seule espèce fossile est référencée du même auteur que le genre.
+†Glaphyromyrmex oligocenicus Wheeler, 1915</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glaphyromyrmex</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaphyromyrmex</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Affinités
-« L'espèce G. oligocenicus a été décrite de l'ambre de la Baltique. Le g. Glaphyromyrmex est voisin du g. Formica. »[3].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'espèce G. oligocenicus a été décrite de l'ambre de la Baltique. Le g. Glaphyromyrmex est voisin du g. Formica. ».
 </t>
         </is>
       </c>
